--- a/Proj1/Curve.xlsx
+++ b/Proj1/Curve.xlsx
@@ -1682,11 +1682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47404544"/>
-        <c:axId val="47406080"/>
+        <c:axId val="103272832"/>
+        <c:axId val="103274368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47404544"/>
+        <c:axId val="103272832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47406080"/>
+        <c:crossAx val="103274368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1703,7 +1703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47406080"/>
+        <c:axId val="103274368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,4753 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47404544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Temp_LUT1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Temp_LUT1!$A$2:$B$528</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="513"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="147">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="148">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="149">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="150">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="151">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="152">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="153">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="154">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="155">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="156">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="157">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="158">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="159">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="160">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="161">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="162">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="163">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="164">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="165">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="166">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="167">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="168">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="169">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="170">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="171">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="172">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="173">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="174">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="175">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="176">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="177">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="178">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="179">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="180">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="181">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="182">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="183">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="184">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="185">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="186">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="187">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="188">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="189">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="190">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="191">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="192">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="193">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="194">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="195">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="196">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="197">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="198">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="199">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="200">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="201">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="203">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="204">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="205">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="206">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="207">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="208">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="209">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="210">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="211">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="212">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="213">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="214">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="215">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="216">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="217">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="218">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="219">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="220">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="221">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="222">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="223">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="224">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="225">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="226">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="227">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="228">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="229">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="230">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="231">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="232">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="233">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="234">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="235">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="236">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="237">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="238">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="239">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="240">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="241">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="242">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="243">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="244">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="245">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="246">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="247">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="248">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="249">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="250">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="251">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="252">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="253">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="254">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="255">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="256">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="257">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="258">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="259">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="260">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="261">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="262">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="263">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="264">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="265">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="266">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="267">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="268">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="269">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="270">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="271">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="272">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="273">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="274">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="275">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="276">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="277">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="278">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="279">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="280">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="281">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="282">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="283">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="284">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="285">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="286">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="287">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="288">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="289">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="290">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="291">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="292">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="293">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="294">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="295">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="296">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="297">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="298">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="299">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="300">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="301">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="302">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="303">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="304">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="305">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="306">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="307">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="308">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="309">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="310">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="311">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="312">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="313">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="314">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="315">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="316">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="317">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="318">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="319">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="320">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="321">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="322">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="323">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="324">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="325">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="326">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="327">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="328">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="329">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="330">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="331">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="332">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="333">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="334">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="335">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="336">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="337">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="338">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="339">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="340">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="341">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="342">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="343">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="344">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="345">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="346">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="347">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="348">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="349">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="350">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="351">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="352">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="353">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="354">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="355">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="356">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="357">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="358">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="359">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="360">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="361">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="362">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="363">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="364">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="365">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="366">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="367">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="368">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="369">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="370">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="371">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="372">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="373">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="374">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="375">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="376">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="377">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="378">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="379">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="380">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="381">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="382">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="383">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="384">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="385">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="386">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="387">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="388">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="389">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="390">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="391">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="392">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="393">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="394">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="395">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="396">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="397">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="398">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="399">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="400">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="401">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="402">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="403">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="404">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="405">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="406">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="407">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="408">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="409">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="410">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="411">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="412">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="413">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="414">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="415">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="416">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="417">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="418">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="419">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="420">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="421">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="422">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="423">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="424">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="425">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="426">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="427">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="428">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="429">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="430">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="431">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="432">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="433">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="434">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="435">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="436">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="437">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="438">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="439">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="440">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="441">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="442">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="443">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="444">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="445">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="446">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="447">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="448">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="449">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="450">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="451">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="452">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="453">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="454">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="455">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="456">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="457">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="458">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="459">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="460">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="461">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="462">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="463">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="464">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="465">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="466">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="467">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="468">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="469">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="470">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="471">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="472">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="473">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="474">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="475">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="476">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="477">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="478">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="479">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="480">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="481">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="482">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="483">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="484">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="485">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="486">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="487">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="488">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="489">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="490">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="491">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="492">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="493">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="494">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="495">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="496">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="497">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="498">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="499">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="500">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="501">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="502">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="503">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="504">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="505">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="506">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="507">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="508">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="509">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="510">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="511">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                  <c:pt idx="512">
-                    <c:v>DS</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>48</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>51</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>52</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>53</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>54</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>55</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>56</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>57</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>58</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>59</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>60</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>61</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>62</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>63</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>65</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>66</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>67</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>68</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>69</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>70</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>71</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>72</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>73</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>74</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>75</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>76</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>77</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>78</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>79</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>80</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>81</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>82</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>83</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>84</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>85</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>86</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>87</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>88</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>89</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>90</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>91</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>92</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>93</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>94</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>95</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>96</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>97</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>98</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>99</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>100</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>101</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>102</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>103</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>104</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>105</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>106</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>107</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>108</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>109</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>110</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>111</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>112</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>113</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>114</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>115</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>116</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>117</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>118</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>119</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>120</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>121</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>122</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>123</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>124</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>125</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>126</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>127</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>129</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>130</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>131</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>132</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>133</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>134</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>135</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>136</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>137</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>138</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>139</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>140</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>141</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>142</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>143</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>144</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>145</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>146</c:v>
-                  </c:pt>
-                  <c:pt idx="147">
-                    <c:v>147</c:v>
-                  </c:pt>
-                  <c:pt idx="148">
-                    <c:v>148</c:v>
-                  </c:pt>
-                  <c:pt idx="149">
-                    <c:v>149</c:v>
-                  </c:pt>
-                  <c:pt idx="150">
-                    <c:v>150</c:v>
-                  </c:pt>
-                  <c:pt idx="151">
-                    <c:v>151</c:v>
-                  </c:pt>
-                  <c:pt idx="152">
-                    <c:v>152</c:v>
-                  </c:pt>
-                  <c:pt idx="153">
-                    <c:v>153</c:v>
-                  </c:pt>
-                  <c:pt idx="154">
-                    <c:v>154</c:v>
-                  </c:pt>
-                  <c:pt idx="155">
-                    <c:v>155</c:v>
-                  </c:pt>
-                  <c:pt idx="156">
-                    <c:v>156</c:v>
-                  </c:pt>
-                  <c:pt idx="157">
-                    <c:v>157</c:v>
-                  </c:pt>
-                  <c:pt idx="158">
-                    <c:v>158</c:v>
-                  </c:pt>
-                  <c:pt idx="159">
-                    <c:v>159</c:v>
-                  </c:pt>
-                  <c:pt idx="160">
-                    <c:v>160</c:v>
-                  </c:pt>
-                  <c:pt idx="161">
-                    <c:v>161</c:v>
-                  </c:pt>
-                  <c:pt idx="162">
-                    <c:v>162</c:v>
-                  </c:pt>
-                  <c:pt idx="163">
-                    <c:v>163</c:v>
-                  </c:pt>
-                  <c:pt idx="164">
-                    <c:v>164</c:v>
-                  </c:pt>
-                  <c:pt idx="165">
-                    <c:v>165</c:v>
-                  </c:pt>
-                  <c:pt idx="166">
-                    <c:v>166</c:v>
-                  </c:pt>
-                  <c:pt idx="167">
-                    <c:v>167</c:v>
-                  </c:pt>
-                  <c:pt idx="168">
-                    <c:v>168</c:v>
-                  </c:pt>
-                  <c:pt idx="169">
-                    <c:v>169</c:v>
-                  </c:pt>
-                  <c:pt idx="170">
-                    <c:v>170</c:v>
-                  </c:pt>
-                  <c:pt idx="171">
-                    <c:v>171</c:v>
-                  </c:pt>
-                  <c:pt idx="172">
-                    <c:v>172</c:v>
-                  </c:pt>
-                  <c:pt idx="173">
-                    <c:v>173</c:v>
-                  </c:pt>
-                  <c:pt idx="174">
-                    <c:v>174</c:v>
-                  </c:pt>
-                  <c:pt idx="175">
-                    <c:v>175</c:v>
-                  </c:pt>
-                  <c:pt idx="176">
-                    <c:v>176</c:v>
-                  </c:pt>
-                  <c:pt idx="177">
-                    <c:v>177</c:v>
-                  </c:pt>
-                  <c:pt idx="178">
-                    <c:v>178</c:v>
-                  </c:pt>
-                  <c:pt idx="179">
-                    <c:v>179</c:v>
-                  </c:pt>
-                  <c:pt idx="180">
-                    <c:v>180</c:v>
-                  </c:pt>
-                  <c:pt idx="181">
-                    <c:v>181</c:v>
-                  </c:pt>
-                  <c:pt idx="182">
-                    <c:v>182</c:v>
-                  </c:pt>
-                  <c:pt idx="183">
-                    <c:v>183</c:v>
-                  </c:pt>
-                  <c:pt idx="184">
-                    <c:v>184</c:v>
-                  </c:pt>
-                  <c:pt idx="185">
-                    <c:v>185</c:v>
-                  </c:pt>
-                  <c:pt idx="186">
-                    <c:v>186</c:v>
-                  </c:pt>
-                  <c:pt idx="187">
-                    <c:v>187</c:v>
-                  </c:pt>
-                  <c:pt idx="188">
-                    <c:v>188</c:v>
-                  </c:pt>
-                  <c:pt idx="189">
-                    <c:v>189</c:v>
-                  </c:pt>
-                  <c:pt idx="190">
-                    <c:v>190</c:v>
-                  </c:pt>
-                  <c:pt idx="191">
-                    <c:v>191</c:v>
-                  </c:pt>
-                  <c:pt idx="192">
-                    <c:v>192</c:v>
-                  </c:pt>
-                  <c:pt idx="193">
-                    <c:v>193</c:v>
-                  </c:pt>
-                  <c:pt idx="194">
-                    <c:v>194</c:v>
-                  </c:pt>
-                  <c:pt idx="195">
-                    <c:v>195</c:v>
-                  </c:pt>
-                  <c:pt idx="196">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="197">
-                    <c:v>197</c:v>
-                  </c:pt>
-                  <c:pt idx="198">
-                    <c:v>198</c:v>
-                  </c:pt>
-                  <c:pt idx="199">
-                    <c:v>199</c:v>
-                  </c:pt>
-                  <c:pt idx="200">
-                    <c:v>200</c:v>
-                  </c:pt>
-                  <c:pt idx="201">
-                    <c:v>201</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>202</c:v>
-                  </c:pt>
-                  <c:pt idx="203">
-                    <c:v>203</c:v>
-                  </c:pt>
-                  <c:pt idx="204">
-                    <c:v>204</c:v>
-                  </c:pt>
-                  <c:pt idx="205">
-                    <c:v>205</c:v>
-                  </c:pt>
-                  <c:pt idx="206">
-                    <c:v>206</c:v>
-                  </c:pt>
-                  <c:pt idx="207">
-                    <c:v>207</c:v>
-                  </c:pt>
-                  <c:pt idx="208">
-                    <c:v>208</c:v>
-                  </c:pt>
-                  <c:pt idx="209">
-                    <c:v>209</c:v>
-                  </c:pt>
-                  <c:pt idx="210">
-                    <c:v>210</c:v>
-                  </c:pt>
-                  <c:pt idx="211">
-                    <c:v>211</c:v>
-                  </c:pt>
-                  <c:pt idx="212">
-                    <c:v>212</c:v>
-                  </c:pt>
-                  <c:pt idx="213">
-                    <c:v>213</c:v>
-                  </c:pt>
-                  <c:pt idx="214">
-                    <c:v>214</c:v>
-                  </c:pt>
-                  <c:pt idx="215">
-                    <c:v>215</c:v>
-                  </c:pt>
-                  <c:pt idx="216">
-                    <c:v>216</c:v>
-                  </c:pt>
-                  <c:pt idx="217">
-                    <c:v>217</c:v>
-                  </c:pt>
-                  <c:pt idx="218">
-                    <c:v>218</c:v>
-                  </c:pt>
-                  <c:pt idx="219">
-                    <c:v>219</c:v>
-                  </c:pt>
-                  <c:pt idx="220">
-                    <c:v>220</c:v>
-                  </c:pt>
-                  <c:pt idx="221">
-                    <c:v>221</c:v>
-                  </c:pt>
-                  <c:pt idx="222">
-                    <c:v>222</c:v>
-                  </c:pt>
-                  <c:pt idx="223">
-                    <c:v>223</c:v>
-                  </c:pt>
-                  <c:pt idx="224">
-                    <c:v>224</c:v>
-                  </c:pt>
-                  <c:pt idx="225">
-                    <c:v>225</c:v>
-                  </c:pt>
-                  <c:pt idx="226">
-                    <c:v>226</c:v>
-                  </c:pt>
-                  <c:pt idx="227">
-                    <c:v>227</c:v>
-                  </c:pt>
-                  <c:pt idx="228">
-                    <c:v>228</c:v>
-                  </c:pt>
-                  <c:pt idx="229">
-                    <c:v>229</c:v>
-                  </c:pt>
-                  <c:pt idx="230">
-                    <c:v>230</c:v>
-                  </c:pt>
-                  <c:pt idx="231">
-                    <c:v>231</c:v>
-                  </c:pt>
-                  <c:pt idx="232">
-                    <c:v>232</c:v>
-                  </c:pt>
-                  <c:pt idx="233">
-                    <c:v>233</c:v>
-                  </c:pt>
-                  <c:pt idx="234">
-                    <c:v>234</c:v>
-                  </c:pt>
-                  <c:pt idx="235">
-                    <c:v>235</c:v>
-                  </c:pt>
-                  <c:pt idx="236">
-                    <c:v>236</c:v>
-                  </c:pt>
-                  <c:pt idx="237">
-                    <c:v>237</c:v>
-                  </c:pt>
-                  <c:pt idx="238">
-                    <c:v>238</c:v>
-                  </c:pt>
-                  <c:pt idx="239">
-                    <c:v>239</c:v>
-                  </c:pt>
-                  <c:pt idx="240">
-                    <c:v>240</c:v>
-                  </c:pt>
-                  <c:pt idx="241">
-                    <c:v>241</c:v>
-                  </c:pt>
-                  <c:pt idx="242">
-                    <c:v>242</c:v>
-                  </c:pt>
-                  <c:pt idx="243">
-                    <c:v>243</c:v>
-                  </c:pt>
-                  <c:pt idx="244">
-                    <c:v>244</c:v>
-                  </c:pt>
-                  <c:pt idx="245">
-                    <c:v>245</c:v>
-                  </c:pt>
-                  <c:pt idx="246">
-                    <c:v>246</c:v>
-                  </c:pt>
-                  <c:pt idx="247">
-                    <c:v>247</c:v>
-                  </c:pt>
-                  <c:pt idx="248">
-                    <c:v>248</c:v>
-                  </c:pt>
-                  <c:pt idx="249">
-                    <c:v>249</c:v>
-                  </c:pt>
-                  <c:pt idx="250">
-                    <c:v>250</c:v>
-                  </c:pt>
-                  <c:pt idx="251">
-                    <c:v>251</c:v>
-                  </c:pt>
-                  <c:pt idx="252">
-                    <c:v>252</c:v>
-                  </c:pt>
-                  <c:pt idx="253">
-                    <c:v>253</c:v>
-                  </c:pt>
-                  <c:pt idx="254">
-                    <c:v>254</c:v>
-                  </c:pt>
-                  <c:pt idx="255">
-                    <c:v>255</c:v>
-                  </c:pt>
-                  <c:pt idx="256">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="257">
-                    <c:v>257</c:v>
-                  </c:pt>
-                  <c:pt idx="258">
-                    <c:v>258</c:v>
-                  </c:pt>
-                  <c:pt idx="259">
-                    <c:v>259</c:v>
-                  </c:pt>
-                  <c:pt idx="260">
-                    <c:v>260</c:v>
-                  </c:pt>
-                  <c:pt idx="261">
-                    <c:v>261</c:v>
-                  </c:pt>
-                  <c:pt idx="262">
-                    <c:v>262</c:v>
-                  </c:pt>
-                  <c:pt idx="263">
-                    <c:v>263</c:v>
-                  </c:pt>
-                  <c:pt idx="264">
-                    <c:v>264</c:v>
-                  </c:pt>
-                  <c:pt idx="265">
-                    <c:v>265</c:v>
-                  </c:pt>
-                  <c:pt idx="266">
-                    <c:v>266</c:v>
-                  </c:pt>
-                  <c:pt idx="267">
-                    <c:v>267</c:v>
-                  </c:pt>
-                  <c:pt idx="268">
-                    <c:v>268</c:v>
-                  </c:pt>
-                  <c:pt idx="269">
-                    <c:v>269</c:v>
-                  </c:pt>
-                  <c:pt idx="270">
-                    <c:v>270</c:v>
-                  </c:pt>
-                  <c:pt idx="271">
-                    <c:v>271</c:v>
-                  </c:pt>
-                  <c:pt idx="272">
-                    <c:v>272</c:v>
-                  </c:pt>
-                  <c:pt idx="273">
-                    <c:v>273</c:v>
-                  </c:pt>
-                  <c:pt idx="274">
-                    <c:v>274</c:v>
-                  </c:pt>
-                  <c:pt idx="275">
-                    <c:v>275</c:v>
-                  </c:pt>
-                  <c:pt idx="276">
-                    <c:v>276</c:v>
-                  </c:pt>
-                  <c:pt idx="277">
-                    <c:v>277</c:v>
-                  </c:pt>
-                  <c:pt idx="278">
-                    <c:v>278</c:v>
-                  </c:pt>
-                  <c:pt idx="279">
-                    <c:v>279</c:v>
-                  </c:pt>
-                  <c:pt idx="280">
-                    <c:v>280</c:v>
-                  </c:pt>
-                  <c:pt idx="281">
-                    <c:v>281</c:v>
-                  </c:pt>
-                  <c:pt idx="282">
-                    <c:v>282</c:v>
-                  </c:pt>
-                  <c:pt idx="283">
-                    <c:v>283</c:v>
-                  </c:pt>
-                  <c:pt idx="284">
-                    <c:v>284</c:v>
-                  </c:pt>
-                  <c:pt idx="285">
-                    <c:v>285</c:v>
-                  </c:pt>
-                  <c:pt idx="286">
-                    <c:v>286</c:v>
-                  </c:pt>
-                  <c:pt idx="287">
-                    <c:v>287</c:v>
-                  </c:pt>
-                  <c:pt idx="288">
-                    <c:v>288</c:v>
-                  </c:pt>
-                  <c:pt idx="289">
-                    <c:v>289</c:v>
-                  </c:pt>
-                  <c:pt idx="290">
-                    <c:v>290</c:v>
-                  </c:pt>
-                  <c:pt idx="291">
-                    <c:v>291</c:v>
-                  </c:pt>
-                  <c:pt idx="292">
-                    <c:v>292</c:v>
-                  </c:pt>
-                  <c:pt idx="293">
-                    <c:v>293</c:v>
-                  </c:pt>
-                  <c:pt idx="294">
-                    <c:v>294</c:v>
-                  </c:pt>
-                  <c:pt idx="295">
-                    <c:v>295</c:v>
-                  </c:pt>
-                  <c:pt idx="296">
-                    <c:v>296</c:v>
-                  </c:pt>
-                  <c:pt idx="297">
-                    <c:v>297</c:v>
-                  </c:pt>
-                  <c:pt idx="298">
-                    <c:v>298</c:v>
-                  </c:pt>
-                  <c:pt idx="299">
-                    <c:v>299</c:v>
-                  </c:pt>
-                  <c:pt idx="300">
-                    <c:v>300</c:v>
-                  </c:pt>
-                  <c:pt idx="301">
-                    <c:v>301</c:v>
-                  </c:pt>
-                  <c:pt idx="302">
-                    <c:v>302</c:v>
-                  </c:pt>
-                  <c:pt idx="303">
-                    <c:v>303</c:v>
-                  </c:pt>
-                  <c:pt idx="304">
-                    <c:v>304</c:v>
-                  </c:pt>
-                  <c:pt idx="305">
-                    <c:v>305</c:v>
-                  </c:pt>
-                  <c:pt idx="306">
-                    <c:v>306</c:v>
-                  </c:pt>
-                  <c:pt idx="307">
-                    <c:v>307</c:v>
-                  </c:pt>
-                  <c:pt idx="308">
-                    <c:v>308</c:v>
-                  </c:pt>
-                  <c:pt idx="309">
-                    <c:v>309</c:v>
-                  </c:pt>
-                  <c:pt idx="310">
-                    <c:v>310</c:v>
-                  </c:pt>
-                  <c:pt idx="311">
-                    <c:v>311</c:v>
-                  </c:pt>
-                  <c:pt idx="312">
-                    <c:v>312</c:v>
-                  </c:pt>
-                  <c:pt idx="313">
-                    <c:v>313</c:v>
-                  </c:pt>
-                  <c:pt idx="314">
-                    <c:v>314</c:v>
-                  </c:pt>
-                  <c:pt idx="315">
-                    <c:v>315</c:v>
-                  </c:pt>
-                  <c:pt idx="316">
-                    <c:v>316</c:v>
-                  </c:pt>
-                  <c:pt idx="317">
-                    <c:v>317</c:v>
-                  </c:pt>
-                  <c:pt idx="318">
-                    <c:v>318</c:v>
-                  </c:pt>
-                  <c:pt idx="319">
-                    <c:v>319</c:v>
-                  </c:pt>
-                  <c:pt idx="320">
-                    <c:v>320</c:v>
-                  </c:pt>
-                  <c:pt idx="321">
-                    <c:v>321</c:v>
-                  </c:pt>
-                  <c:pt idx="322">
-                    <c:v>322</c:v>
-                  </c:pt>
-                  <c:pt idx="323">
-                    <c:v>323</c:v>
-                  </c:pt>
-                  <c:pt idx="324">
-                    <c:v>324</c:v>
-                  </c:pt>
-                  <c:pt idx="325">
-                    <c:v>325</c:v>
-                  </c:pt>
-                  <c:pt idx="326">
-                    <c:v>326</c:v>
-                  </c:pt>
-                  <c:pt idx="327">
-                    <c:v>327</c:v>
-                  </c:pt>
-                  <c:pt idx="328">
-                    <c:v>328</c:v>
-                  </c:pt>
-                  <c:pt idx="329">
-                    <c:v>329</c:v>
-                  </c:pt>
-                  <c:pt idx="330">
-                    <c:v>330</c:v>
-                  </c:pt>
-                  <c:pt idx="331">
-                    <c:v>331</c:v>
-                  </c:pt>
-                  <c:pt idx="332">
-                    <c:v>332</c:v>
-                  </c:pt>
-                  <c:pt idx="333">
-                    <c:v>333</c:v>
-                  </c:pt>
-                  <c:pt idx="334">
-                    <c:v>334</c:v>
-                  </c:pt>
-                  <c:pt idx="335">
-                    <c:v>335</c:v>
-                  </c:pt>
-                  <c:pt idx="336">
-                    <c:v>336</c:v>
-                  </c:pt>
-                  <c:pt idx="337">
-                    <c:v>337</c:v>
-                  </c:pt>
-                  <c:pt idx="338">
-                    <c:v>338</c:v>
-                  </c:pt>
-                  <c:pt idx="339">
-                    <c:v>339</c:v>
-                  </c:pt>
-                  <c:pt idx="340">
-                    <c:v>340</c:v>
-                  </c:pt>
-                  <c:pt idx="341">
-                    <c:v>341</c:v>
-                  </c:pt>
-                  <c:pt idx="342">
-                    <c:v>342</c:v>
-                  </c:pt>
-                  <c:pt idx="343">
-                    <c:v>343</c:v>
-                  </c:pt>
-                  <c:pt idx="344">
-                    <c:v>344</c:v>
-                  </c:pt>
-                  <c:pt idx="345">
-                    <c:v>345</c:v>
-                  </c:pt>
-                  <c:pt idx="346">
-                    <c:v>346</c:v>
-                  </c:pt>
-                  <c:pt idx="347">
-                    <c:v>347</c:v>
-                  </c:pt>
-                  <c:pt idx="348">
-                    <c:v>348</c:v>
-                  </c:pt>
-                  <c:pt idx="349">
-                    <c:v>349</c:v>
-                  </c:pt>
-                  <c:pt idx="350">
-                    <c:v>350</c:v>
-                  </c:pt>
-                  <c:pt idx="351">
-                    <c:v>351</c:v>
-                  </c:pt>
-                  <c:pt idx="352">
-                    <c:v>352</c:v>
-                  </c:pt>
-                  <c:pt idx="353">
-                    <c:v>353</c:v>
-                  </c:pt>
-                  <c:pt idx="354">
-                    <c:v>354</c:v>
-                  </c:pt>
-                  <c:pt idx="355">
-                    <c:v>355</c:v>
-                  </c:pt>
-                  <c:pt idx="356">
-                    <c:v>356</c:v>
-                  </c:pt>
-                  <c:pt idx="357">
-                    <c:v>357</c:v>
-                  </c:pt>
-                  <c:pt idx="358">
-                    <c:v>358</c:v>
-                  </c:pt>
-                  <c:pt idx="359">
-                    <c:v>359</c:v>
-                  </c:pt>
-                  <c:pt idx="360">
-                    <c:v>360</c:v>
-                  </c:pt>
-                  <c:pt idx="361">
-                    <c:v>361</c:v>
-                  </c:pt>
-                  <c:pt idx="362">
-                    <c:v>362</c:v>
-                  </c:pt>
-                  <c:pt idx="363">
-                    <c:v>363</c:v>
-                  </c:pt>
-                  <c:pt idx="364">
-                    <c:v>364</c:v>
-                  </c:pt>
-                  <c:pt idx="365">
-                    <c:v>365</c:v>
-                  </c:pt>
-                  <c:pt idx="366">
-                    <c:v>366</c:v>
-                  </c:pt>
-                  <c:pt idx="367">
-                    <c:v>367</c:v>
-                  </c:pt>
-                  <c:pt idx="368">
-                    <c:v>368</c:v>
-                  </c:pt>
-                  <c:pt idx="369">
-                    <c:v>369</c:v>
-                  </c:pt>
-                  <c:pt idx="370">
-                    <c:v>370</c:v>
-                  </c:pt>
-                  <c:pt idx="371">
-                    <c:v>371</c:v>
-                  </c:pt>
-                  <c:pt idx="372">
-                    <c:v>372</c:v>
-                  </c:pt>
-                  <c:pt idx="373">
-                    <c:v>373</c:v>
-                  </c:pt>
-                  <c:pt idx="374">
-                    <c:v>374</c:v>
-                  </c:pt>
-                  <c:pt idx="375">
-                    <c:v>375</c:v>
-                  </c:pt>
-                  <c:pt idx="376">
-                    <c:v>376</c:v>
-                  </c:pt>
-                  <c:pt idx="377">
-                    <c:v>377</c:v>
-                  </c:pt>
-                  <c:pt idx="378">
-                    <c:v>378</c:v>
-                  </c:pt>
-                  <c:pt idx="379">
-                    <c:v>379</c:v>
-                  </c:pt>
-                  <c:pt idx="380">
-                    <c:v>380</c:v>
-                  </c:pt>
-                  <c:pt idx="381">
-                    <c:v>381</c:v>
-                  </c:pt>
-                  <c:pt idx="382">
-                    <c:v>382</c:v>
-                  </c:pt>
-                  <c:pt idx="383">
-                    <c:v>383</c:v>
-                  </c:pt>
-                  <c:pt idx="384">
-                    <c:v>384</c:v>
-                  </c:pt>
-                  <c:pt idx="385">
-                    <c:v>385</c:v>
-                  </c:pt>
-                  <c:pt idx="386">
-                    <c:v>386</c:v>
-                  </c:pt>
-                  <c:pt idx="387">
-                    <c:v>387</c:v>
-                  </c:pt>
-                  <c:pt idx="388">
-                    <c:v>388</c:v>
-                  </c:pt>
-                  <c:pt idx="389">
-                    <c:v>389</c:v>
-                  </c:pt>
-                  <c:pt idx="390">
-                    <c:v>390</c:v>
-                  </c:pt>
-                  <c:pt idx="391">
-                    <c:v>391</c:v>
-                  </c:pt>
-                  <c:pt idx="392">
-                    <c:v>392</c:v>
-                  </c:pt>
-                  <c:pt idx="393">
-                    <c:v>393</c:v>
-                  </c:pt>
-                  <c:pt idx="394">
-                    <c:v>394</c:v>
-                  </c:pt>
-                  <c:pt idx="395">
-                    <c:v>395</c:v>
-                  </c:pt>
-                  <c:pt idx="396">
-                    <c:v>396</c:v>
-                  </c:pt>
-                  <c:pt idx="397">
-                    <c:v>397</c:v>
-                  </c:pt>
-                  <c:pt idx="398">
-                    <c:v>398</c:v>
-                  </c:pt>
-                  <c:pt idx="399">
-                    <c:v>399</c:v>
-                  </c:pt>
-                  <c:pt idx="400">
-                    <c:v>400</c:v>
-                  </c:pt>
-                  <c:pt idx="401">
-                    <c:v>401</c:v>
-                  </c:pt>
-                  <c:pt idx="402">
-                    <c:v>402</c:v>
-                  </c:pt>
-                  <c:pt idx="403">
-                    <c:v>403</c:v>
-                  </c:pt>
-                  <c:pt idx="404">
-                    <c:v>404</c:v>
-                  </c:pt>
-                  <c:pt idx="405">
-                    <c:v>405</c:v>
-                  </c:pt>
-                  <c:pt idx="406">
-                    <c:v>406</c:v>
-                  </c:pt>
-                  <c:pt idx="407">
-                    <c:v>407</c:v>
-                  </c:pt>
-                  <c:pt idx="408">
-                    <c:v>408</c:v>
-                  </c:pt>
-                  <c:pt idx="409">
-                    <c:v>409</c:v>
-                  </c:pt>
-                  <c:pt idx="410">
-                    <c:v>410</c:v>
-                  </c:pt>
-                  <c:pt idx="411">
-                    <c:v>411</c:v>
-                  </c:pt>
-                  <c:pt idx="412">
-                    <c:v>412</c:v>
-                  </c:pt>
-                  <c:pt idx="413">
-                    <c:v>413</c:v>
-                  </c:pt>
-                  <c:pt idx="414">
-                    <c:v>414</c:v>
-                  </c:pt>
-                  <c:pt idx="415">
-                    <c:v>415</c:v>
-                  </c:pt>
-                  <c:pt idx="416">
-                    <c:v>416</c:v>
-                  </c:pt>
-                  <c:pt idx="417">
-                    <c:v>417</c:v>
-                  </c:pt>
-                  <c:pt idx="418">
-                    <c:v>418</c:v>
-                  </c:pt>
-                  <c:pt idx="419">
-                    <c:v>419</c:v>
-                  </c:pt>
-                  <c:pt idx="420">
-                    <c:v>420</c:v>
-                  </c:pt>
-                  <c:pt idx="421">
-                    <c:v>421</c:v>
-                  </c:pt>
-                  <c:pt idx="422">
-                    <c:v>422</c:v>
-                  </c:pt>
-                  <c:pt idx="423">
-                    <c:v>423</c:v>
-                  </c:pt>
-                  <c:pt idx="424">
-                    <c:v>424</c:v>
-                  </c:pt>
-                  <c:pt idx="425">
-                    <c:v>425</c:v>
-                  </c:pt>
-                  <c:pt idx="426">
-                    <c:v>426</c:v>
-                  </c:pt>
-                  <c:pt idx="427">
-                    <c:v>427</c:v>
-                  </c:pt>
-                  <c:pt idx="428">
-                    <c:v>428</c:v>
-                  </c:pt>
-                  <c:pt idx="429">
-                    <c:v>429</c:v>
-                  </c:pt>
-                  <c:pt idx="430">
-                    <c:v>430</c:v>
-                  </c:pt>
-                  <c:pt idx="431">
-                    <c:v>431</c:v>
-                  </c:pt>
-                  <c:pt idx="432">
-                    <c:v>432</c:v>
-                  </c:pt>
-                  <c:pt idx="433">
-                    <c:v>433</c:v>
-                  </c:pt>
-                  <c:pt idx="434">
-                    <c:v>434</c:v>
-                  </c:pt>
-                  <c:pt idx="435">
-                    <c:v>435</c:v>
-                  </c:pt>
-                  <c:pt idx="436">
-                    <c:v>436</c:v>
-                  </c:pt>
-                  <c:pt idx="437">
-                    <c:v>437</c:v>
-                  </c:pt>
-                  <c:pt idx="438">
-                    <c:v>438</c:v>
-                  </c:pt>
-                  <c:pt idx="439">
-                    <c:v>439</c:v>
-                  </c:pt>
-                  <c:pt idx="440">
-                    <c:v>440</c:v>
-                  </c:pt>
-                  <c:pt idx="441">
-                    <c:v>441</c:v>
-                  </c:pt>
-                  <c:pt idx="442">
-                    <c:v>442</c:v>
-                  </c:pt>
-                  <c:pt idx="443">
-                    <c:v>443</c:v>
-                  </c:pt>
-                  <c:pt idx="444">
-                    <c:v>444</c:v>
-                  </c:pt>
-                  <c:pt idx="445">
-                    <c:v>445</c:v>
-                  </c:pt>
-                  <c:pt idx="446">
-                    <c:v>446</c:v>
-                  </c:pt>
-                  <c:pt idx="447">
-                    <c:v>447</c:v>
-                  </c:pt>
-                  <c:pt idx="448">
-                    <c:v>448</c:v>
-                  </c:pt>
-                  <c:pt idx="449">
-                    <c:v>449</c:v>
-                  </c:pt>
-                  <c:pt idx="450">
-                    <c:v>450</c:v>
-                  </c:pt>
-                  <c:pt idx="451">
-                    <c:v>451</c:v>
-                  </c:pt>
-                  <c:pt idx="452">
-                    <c:v>452</c:v>
-                  </c:pt>
-                  <c:pt idx="453">
-                    <c:v>453</c:v>
-                  </c:pt>
-                  <c:pt idx="454">
-                    <c:v>454</c:v>
-                  </c:pt>
-                  <c:pt idx="455">
-                    <c:v>455</c:v>
-                  </c:pt>
-                  <c:pt idx="456">
-                    <c:v>456</c:v>
-                  </c:pt>
-                  <c:pt idx="457">
-                    <c:v>457</c:v>
-                  </c:pt>
-                  <c:pt idx="458">
-                    <c:v>458</c:v>
-                  </c:pt>
-                  <c:pt idx="459">
-                    <c:v>459</c:v>
-                  </c:pt>
-                  <c:pt idx="460">
-                    <c:v>460</c:v>
-                  </c:pt>
-                  <c:pt idx="461">
-                    <c:v>461</c:v>
-                  </c:pt>
-                  <c:pt idx="462">
-                    <c:v>462</c:v>
-                  </c:pt>
-                  <c:pt idx="463">
-                    <c:v>463</c:v>
-                  </c:pt>
-                  <c:pt idx="464">
-                    <c:v>464</c:v>
-                  </c:pt>
-                  <c:pt idx="465">
-                    <c:v>465</c:v>
-                  </c:pt>
-                  <c:pt idx="466">
-                    <c:v>466</c:v>
-                  </c:pt>
-                  <c:pt idx="467">
-                    <c:v>467</c:v>
-                  </c:pt>
-                  <c:pt idx="468">
-                    <c:v>468</c:v>
-                  </c:pt>
-                  <c:pt idx="469">
-                    <c:v>469</c:v>
-                  </c:pt>
-                  <c:pt idx="470">
-                    <c:v>470</c:v>
-                  </c:pt>
-                  <c:pt idx="471">
-                    <c:v>471</c:v>
-                  </c:pt>
-                  <c:pt idx="472">
-                    <c:v>472</c:v>
-                  </c:pt>
-                  <c:pt idx="473">
-                    <c:v>473</c:v>
-                  </c:pt>
-                  <c:pt idx="474">
-                    <c:v>474</c:v>
-                  </c:pt>
-                  <c:pt idx="475">
-                    <c:v>475</c:v>
-                  </c:pt>
-                  <c:pt idx="476">
-                    <c:v>476</c:v>
-                  </c:pt>
-                  <c:pt idx="477">
-                    <c:v>477</c:v>
-                  </c:pt>
-                  <c:pt idx="478">
-                    <c:v>478</c:v>
-                  </c:pt>
-                  <c:pt idx="479">
-                    <c:v>479</c:v>
-                  </c:pt>
-                  <c:pt idx="480">
-                    <c:v>480</c:v>
-                  </c:pt>
-                  <c:pt idx="481">
-                    <c:v>481</c:v>
-                  </c:pt>
-                  <c:pt idx="482">
-                    <c:v>482</c:v>
-                  </c:pt>
-                  <c:pt idx="483">
-                    <c:v>483</c:v>
-                  </c:pt>
-                  <c:pt idx="484">
-                    <c:v>484</c:v>
-                  </c:pt>
-                  <c:pt idx="485">
-                    <c:v>485</c:v>
-                  </c:pt>
-                  <c:pt idx="486">
-                    <c:v>486</c:v>
-                  </c:pt>
-                  <c:pt idx="487">
-                    <c:v>487</c:v>
-                  </c:pt>
-                  <c:pt idx="488">
-                    <c:v>488</c:v>
-                  </c:pt>
-                  <c:pt idx="489">
-                    <c:v>489</c:v>
-                  </c:pt>
-                  <c:pt idx="490">
-                    <c:v>490</c:v>
-                  </c:pt>
-                  <c:pt idx="491">
-                    <c:v>491</c:v>
-                  </c:pt>
-                  <c:pt idx="492">
-                    <c:v>492</c:v>
-                  </c:pt>
-                  <c:pt idx="493">
-                    <c:v>493</c:v>
-                  </c:pt>
-                  <c:pt idx="494">
-                    <c:v>494</c:v>
-                  </c:pt>
-                  <c:pt idx="495">
-                    <c:v>495</c:v>
-                  </c:pt>
-                  <c:pt idx="496">
-                    <c:v>496</c:v>
-                  </c:pt>
-                  <c:pt idx="497">
-                    <c:v>497</c:v>
-                  </c:pt>
-                  <c:pt idx="498">
-                    <c:v>498</c:v>
-                  </c:pt>
-                  <c:pt idx="499">
-                    <c:v>499</c:v>
-                  </c:pt>
-                  <c:pt idx="500">
-                    <c:v>500</c:v>
-                  </c:pt>
-                  <c:pt idx="501">
-                    <c:v>501</c:v>
-                  </c:pt>
-                  <c:pt idx="502">
-                    <c:v>502</c:v>
-                  </c:pt>
-                  <c:pt idx="503">
-                    <c:v>503</c:v>
-                  </c:pt>
-                  <c:pt idx="504">
-                    <c:v>504</c:v>
-                  </c:pt>
-                  <c:pt idx="505">
-                    <c:v>505</c:v>
-                  </c:pt>
-                  <c:pt idx="506">
-                    <c:v>506</c:v>
-                  </c:pt>
-                  <c:pt idx="507">
-                    <c:v>507</c:v>
-                  </c:pt>
-                  <c:pt idx="508">
-                    <c:v>508</c:v>
-                  </c:pt>
-                  <c:pt idx="509">
-                    <c:v>509</c:v>
-                  </c:pt>
-                  <c:pt idx="510">
-                    <c:v>510</c:v>
-                  </c:pt>
-                  <c:pt idx="511">
-                    <c:v>511</c:v>
-                  </c:pt>
-                  <c:pt idx="512">
-                    <c:v>512</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Temp_LUT1!$C$2:$C$528</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="527"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>185</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="48877952"/>
-        <c:axId val="49025792"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="48877952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49025792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="49025792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48877952"/>
+        <c:crossAx val="103272832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6486,21 +1740,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>487</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>502</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6509,36 +1765,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6848,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
